--- a/library-examples/sample-input.xlsx
+++ b/library-examples/sample-input.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Ver 1.54</t>
   </si>
   <si>
+    <t>Change History</t>
+  </si>
+  <si>
     <t>Change Details</t>
   </si>
   <si>
@@ -33,7 +36,7 @@
     <t>Trivial change not even worth mentioning 1</t>
   </si>
   <si>
-    <t>2 years ago</t>
+    <t>two years ago</t>
   </si>
   <si>
     <t>Company A</t>
@@ -83,7 +86,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ H:MM:SS"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -116,9 +119,24 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -137,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -145,6 +163,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -171,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,19 +205,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,7 +249,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="C4:X11 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -281,10 +314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C4:X12"/>
+  <dimension ref="C1:X12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -292,245 +325,295 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="3.12955465587045"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -544,7 +627,8 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="C1:X2"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="R4:X4"/>
